--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Choux/Pierre_Choux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Choux/Pierre_Choux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Choux (Belley, 24 décembre 1890 - Marseille, 9 avril 1982)[1] est un botaniste français. Il a développé une œuvre très importante sur la flore de Madagascar[2].
-Il a été professeur de l'Institut de Botanique, à l'Université de Montpellier. Il y conserve une grande part de ses collections de specimens[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Choux (Belley, 24 décembre 1890 - Marseille, 9 avril 1982) est un botaniste français. Il a développé une œuvre très importante sur la flore de Madagascar.
+Il a été professeur de l'Institut de Botanique, à l'Université de Montpellier. Il y conserve une grande part de ses collections de specimens
 </t>
         </is>
       </c>
@@ -514,10 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Livres
-1914. Études biologiques sur les Asclépiadacées de Madagascar, thèses. Ed. Protat frères imprimeurs. 264 pp.
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1914. Études biologiques sur les Asclépiadacées de Madagascar, thèses. Ed. Protat frères imprimeurs. 264 pp.
 1924. Les Tubercules du Panicum maximum et du Cyperus articulatus. Ed. Musée colonial, 24 pp.
-1926. Le genre Secamone à Madagascar. Série Mémories de l'Académie malgache, Fasc. I. 2 planches. [3] + 28 pp.
+1926. Le genre Secamone à Madagascar. Série Mémories de l'Académie malgache, Fasc. I. 2 planches.  + 28 pp.
 1927. Les sapindacées de Madagascar. 118 pp.
 1927. Les Cynanchum à feuilles de Madagascar. Ed. Facultés Donnes sciences de Marseille, Musée colonial. 74 pp.
 1928. Observations anatomiques et microchimiques sur les graines grasses de quelques Sapotacées africaines. Ed. Musée Colonial, 43 pp.
@@ -556,12 +573,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Eponimia
-Genre
-(Sapindaceae) Chouxia Capuron[4]
+          <t>Eponimia</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Genre
+(Sapindaceae) Chouxia Capuron
 Espèces
-(Asclepiadaceae) Cynanchum chouxii Liede &amp; Meve[5]
-(Sapindaceae) Doratoxylon chouxii Capuron[4]</t>
+(Asclepiadaceae) Cynanchum chouxii Liede &amp; Meve
+(Sapindaceae) Doratoxylon chouxii Capuron</t>
         </is>
       </c>
     </row>
@@ -589,9 +611,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Commandeur de l'ordre des Palmes académiques (1957)[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de l'ordre des Palmes académiques (1957)
 </t>
         </is>
       </c>
